--- a/vendor/dist/file/importGood.xlsx
+++ b/vendor/dist/file/importGood.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21285" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>商品名称*</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>商品属性（目前支持的属性有：普通商品，含电子电池，含磁商品，膏体固体化妆品，液体违禁品和粉末属性。 如有多属性需用“|”隔开）</t>
+  </si>
+  <si>
+    <t>仓库</t>
   </si>
   <si>
     <t>女短袖（多规格商品示例）</t>
@@ -200,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
@@ -220,9 +223,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,50 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,14 +261,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,6 +321,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -365,7 +339,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,19 +383,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,37 +485,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,121 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,32 +588,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,15 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -671,151 +639,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X120"/>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1198,7 +1201,7 @@
     <col min="24" max="24" width="92.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:24">
+    <row r="1" ht="39" customHeight="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,16 +1274,19 @@
       <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -1295,16 +1301,16 @@
         <v>5000</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="4">
         <v>40</v>
@@ -1316,20 +1322,20 @@
         <v>0.5</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="12:23">
       <c r="L3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="4">
         <v>40</v>
@@ -1341,20 +1347,20 @@
         <v>0.5</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="12:23">
       <c r="L4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="4">
         <v>40</v>
@@ -1366,20 +1372,20 @@
         <v>0.5</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="12:23">
       <c r="L5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="4">
         <v>40</v>
@@ -1391,23 +1397,23 @@
         <v>0.5</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>200</v>
@@ -1422,16 +1428,16 @@
         <v>5000</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="4">
         <v>40</v>
@@ -1443,23 +1449,23 @@
         <v>0.5</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="11:23">
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="4">
         <v>40</v>
@@ -1471,23 +1477,23 @@
         <v>0.5</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="11:23">
       <c r="K8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="4">
         <v>40</v>
@@ -1499,23 +1505,23 @@
         <v>0.5</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="11:23">
       <c r="K9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="4">
         <v>40</v>
@@ -1527,12 +1533,12 @@
         <v>0.5</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="17:22">

--- a/vendor/dist/file/importGood.xlsx
+++ b/vendor/dist/file/importGood.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21285" windowHeight="12540"/>
+    <workbookView windowWidth="18288" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>商品名称*</t>
   </si>
@@ -91,6 +89,9 @@
   </si>
   <si>
     <t>仓库</t>
+  </si>
+  <si>
+    <t>sku商品中文名称</t>
   </si>
   <si>
     <t>女短袖（多规格商品示例）</t>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -230,34 +231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -271,14 +244,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,6 +283,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,7 +348,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,49 +384,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,121 +522,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,21 +575,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,6 +607,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,148 +678,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -836,52 +837,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1179,13 +1180,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y120"/>
+  <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -1199,9 +1200,10 @@
     <col min="20" max="22" width="12.25" customWidth="1"/>
     <col min="23" max="23" width="88" customWidth="1"/>
     <col min="24" max="24" width="92.75" customWidth="1"/>
+    <col min="26" max="26" width="15.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:25">
+    <row r="1" ht="39" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,16 +1279,19 @@
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="14.4" spans="1:23">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -1301,16 +1306,16 @@
         <v>5000</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="4">
         <v>40</v>
@@ -1322,20 +1327,20 @@
         <v>0.5</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="12:23">
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="4">
         <v>40</v>
@@ -1347,20 +1352,20 @@
         <v>0.5</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="12:23">
       <c r="L4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="4">
         <v>40</v>
@@ -1372,20 +1377,20 @@
         <v>0.5</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="12:23">
       <c r="L5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="4">
         <v>40</v>
@@ -1397,23 +1402,23 @@
         <v>0.5</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:23">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>200</v>
@@ -1428,16 +1433,16 @@
         <v>5000</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="4">
         <v>40</v>
@@ -1449,23 +1454,23 @@
         <v>0.5</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="11:23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" ht="14.4" spans="11:23">
       <c r="K7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="4">
         <v>40</v>
@@ -1477,23 +1482,23 @@
         <v>0.5</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="11:23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" spans="11:23">
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="4">
         <v>40</v>
@@ -1505,23 +1510,23 @@
         <v>0.5</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="11:23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" spans="11:23">
       <c r="K9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="4">
         <v>40</v>
@@ -1533,15 +1538,15 @@
         <v>0.5</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="17:22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" ht="14.4" spans="17:22">
       <c r="Q10" s="5"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -2434,36 +2439,4 @@
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>